--- a/data/Test.xlsx
+++ b/data/Test.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11705000</t>
+          <t>187033005</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RNA virus</t>
+          <t>Hepatitis C virus measurement</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>169484002</t>
+          <t>1263415006</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>IUD removal awaited</t>
+          <t>Removal of intrauterine contraceptive device from uterine cavity</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>308273005</t>
+          <t>183644000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Follow-up status</t>
+          <t>Surgical follow-up</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>289259007</t>
+          <t>5556001</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Vaginal delivery</t>
+          <t>Manually assisted spontaneous delivery</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>124801000119108</t>
+          <t>300004007</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Osteoporosis screening declined</t>
+          <t>Screening for osteoporosis</t>
         </is>
       </c>
     </row>
@@ -1369,12 +1369,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>466738006</t>
+          <t>117642006</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Bedside screen</t>
+          <t>Lysozyme screen</t>
         </is>
       </c>
     </row>
@@ -1423,12 +1423,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>47639008</t>
+          <t>702643008</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pilonidal cyst</t>
+          <t>Removal of pilonidal cyst</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1504,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>314487008</t>
+          <t>736531000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Anterior mesh vaginal repair</t>
+          <t>Repair of laceration of cornea</t>
         </is>
       </c>
     </row>
@@ -1747,12 +1747,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>15497006</t>
+          <t>5687005</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ovarian structure</t>
+          <t>Removal of foreign body from ovary</t>
         </is>
       </c>
     </row>
@@ -2098,12 +2098,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>304909008</t>
+          <t>241502008</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Bilateral hip joint</t>
+          <t>US scan of hip</t>
         </is>
       </c>
     </row>
@@ -2179,12 +2179,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>217005002</t>
+          <t>116762002</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Mismatched blood transfused</t>
+          <t>Administration of blood product</t>
         </is>
       </c>
     </row>
@@ -2233,12 +2233,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>257999003</t>
+          <t>470921000124101</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>United States household food security survey module</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>249116009</t>
+          <t>417121007</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Breech engaged</t>
+          <t>Breech extraction</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>420942008</t>
+          <t>308536008</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Call</t>
+          <t>Monitoring call</t>
         </is>
       </c>
     </row>
@@ -2935,12 +2935,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>144201000119107</t>
+          <t>408815001</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Fetal ultrasound increased nuchal translucency</t>
+          <t>Ultrasound scan for fetal nuchal translucency</t>
         </is>
       </c>
     </row>
@@ -2989,12 +2989,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1021000119106</t>
+          <t>782684008</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Peripherally inserted central venous catheter in situ</t>
+          <t>Repair of peripherally inserted central catheter</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>736427008</t>
+          <t>700152009</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Screening for Human papillomavirus declined</t>
+          <t>Human papilloma virus screening</t>
         </is>
       </c>
     </row>
@@ -3097,12 +3097,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>309932005</t>
+          <t>412712007</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Genitourinary medicine department</t>
+          <t>Referral to sexually transmitted infections clinic</t>
         </is>
       </c>
     </row>
@@ -3124,12 +3124,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>41898006</t>
+          <t>225068002</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Erythrocyte</t>
+          <t>Red cell exchange transfusion</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3205,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>240532009</t>
+          <t>700152009</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Human papilloma virus infection</t>
+          <t>Human papilloma virus screening</t>
         </is>
       </c>
     </row>
@@ -3232,12 +3232,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>12018003</t>
+          <t>54605008</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Trichophyton extract skin test</t>
+          <t>Delayed hypersensitivity skin test for Trichophyton</t>
         </is>
       </c>
     </row>
@@ -3340,12 +3340,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>312313001</t>
+          <t>120646007</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Maternal antibody</t>
+          <t>Antibody screen</t>
         </is>
       </c>
     </row>
@@ -3448,12 +3448,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>56935002</t>
+          <t>34608000</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Alanine aminotransferase</t>
+          <t>Alanine aminotransferase measurement</t>
         </is>
       </c>
     </row>
@@ -3745,12 +3745,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>259855002</t>
+          <t>250514000</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Human immunodeficiency virus antibody</t>
+          <t>Human immunodeficiency virus antibody titer measurement</t>
         </is>
       </c>
     </row>
@@ -3799,12 +3799,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>401762009</t>
+          <t>401764005</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Urine ketones testing strips</t>
+          <t>Urine ketones testing tablets</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>417389002</t>
+          <t>63987006</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Disorder of basophils</t>
+          <t>Histamine release from basophils measurement</t>
         </is>
       </c>
     </row>
@@ -4150,12 +4150,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>401762009</t>
+          <t>167509001</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Urine ketones testing strips</t>
+          <t>Urine - bile chemistry measurement</t>
         </is>
       </c>
     </row>
@@ -4177,12 +4177,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>165649003</t>
+          <t>60306005</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Serum folate within reference range</t>
+          <t>Folic acid measurement, serum</t>
         </is>
       </c>
     </row>
@@ -4339,12 +4339,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>259544005</t>
+          <t>269862009</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Conjugated bile acids</t>
+          <t>Measurement of serum amino acid level</t>
         </is>
       </c>
     </row>
@@ -4474,12 +4474,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>401294003</t>
+          <t>168144008</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Wound microscopy, culture and sensitivities</t>
+          <t>No organism isolated in wound swab by culture</t>
         </is>
       </c>
     </row>
@@ -4609,12 +4609,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>75476008</t>
+          <t>294825001</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Bovine growth hormone</t>
+          <t>Allergy to somatropin hormone</t>
         </is>
       </c>
     </row>
@@ -4690,12 +4690,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>72165005</t>
+          <t>314706002</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Hepatitis C virus antibody</t>
+          <t>Hepatitis C antibody detected</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>274944000</t>
+          <t>64135003</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Islet cell adenomatosis</t>
+          <t>Islet cell antibody measurement</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4933,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>22244007</t>
+          <t>166855002</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Low density lipoprotein</t>
+          <t>Lipoprotein electroph. - LDL</t>
         </is>
       </c>
     </row>
@@ -5338,12 +5338,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>733830002</t>
+          <t>43396009</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Glycated hemoglobin-A1c</t>
+          <t>Hemoglobin A1c measurement</t>
         </is>
       </c>
     </row>
@@ -5365,12 +5365,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>700501004</t>
+          <t>165877005</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>DoloTest profile</t>
+          <t>Autoimmunity profile</t>
         </is>
       </c>
     </row>
@@ -5392,12 +5392,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>45530001</t>
+          <t>359788000</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Antinuclear antibody</t>
+          <t>ANA measurement</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>52501007</t>
+          <t>767002</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Leukocyte</t>
+          <t>White blood cell count</t>
         </is>
       </c>
     </row>
@@ -5608,12 +5608,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>9414007</t>
+          <t>251402003</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Impaired glucose tolerance</t>
+          <t>Small intestine glucose tolerance</t>
         </is>
       </c>
     </row>
@@ -5716,12 +5716,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>258520000</t>
+          <t>301874004</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Vaginal swab</t>
+          <t>Taking vaginal swab</t>
         </is>
       </c>
     </row>
@@ -5743,12 +5743,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>59614000</t>
+          <t>167849002</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Occult blood detected in feces</t>
+          <t>Vomit occult blood</t>
         </is>
       </c>
     </row>
@@ -5878,12 +5878,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>410713007</t>
+          <t>275321000</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sore sensation quality</t>
+          <t>Vulva sore</t>
         </is>
       </c>
     </row>
@@ -5932,12 +5932,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>227998008</t>
+          <t>423350005</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Convenience food</t>
+          <t>Fast acetylator due to N-acetyltransferase enzyme variant</t>
         </is>
       </c>
     </row>
@@ -5959,12 +5959,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>89361003</t>
+          <t>276622005</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Subgaleal area</t>
+          <t>Subgaleal hemorrhage</t>
         </is>
       </c>
     </row>
@@ -6391,12 +6391,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>1231710002</t>
+          <t>267433009</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Pure liquid</t>
+          <t>Pure hyperglyceridemia</t>
         </is>
       </c>
     </row>
@@ -6526,12 +6526,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1172623006</t>
+          <t>706893006</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Support of victim of intimate partner violence</t>
+          <t>Victim of intimate partner abuse</t>
         </is>
       </c>
     </row>
@@ -6823,12 +6823,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>260378005</t>
+          <t>249272007</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Excessive</t>
+          <t>Excessive smegma</t>
         </is>
       </c>
     </row>
@@ -6985,12 +6985,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>384642005</t>
+          <t>1340071008</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Mitral valvuloplasty</t>
+          <t>Malignant vagal paraganglioma</t>
         </is>
       </c>
     </row>
@@ -7363,12 +7363,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>255345002</t>
+          <t>91369002</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Hemorrhagic</t>
+          <t>Bloody discharge</t>
         </is>
       </c>
     </row>
@@ -7660,12 +7660,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>422650009</t>
+          <t>77096008</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Social isolation</t>
+          <t>Social isolation (rejection)</t>
         </is>
       </c>
     </row>
@@ -7768,12 +7768,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>231605001</t>
+          <t>202855006</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Medial Lee tarsorrhaphy</t>
+          <t>Lateral epicondylitis</t>
         </is>
       </c>
     </row>
@@ -7903,12 +7903,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>126662008</t>
+          <t>1268301006</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Redness of throat</t>
+          <t>Redness of skin of face</t>
         </is>
       </c>
     </row>
@@ -8146,12 +8146,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>7707000</t>
+          <t>313178001</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Gestation period, 32 weeks</t>
+          <t>Gestation less than 24 weeks</t>
         </is>
       </c>
     </row>
@@ -8173,12 +8173,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>16854002</t>
+          <t>95548009</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Amandava amandava</t>
+          <t>Retroperitoneal edema</t>
         </is>
       </c>
     </row>
@@ -8497,12 +8497,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>59503006</t>
+          <t>274741002</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Structure of submandibular lymph node</t>
+          <t>Generalized enlarged lymph nodes</t>
         </is>
       </c>
     </row>
@@ -8524,12 +8524,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>19982009</t>
+          <t>183739001</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Dead space gas volume</t>
+          <t>Pediatric domiciliary visit done</t>
         </is>
       </c>
     </row>
